--- a/testcases/case9.xlsx
+++ b/testcases/case9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -542,8 +542,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1614,18 +1614,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,39 +1639,42 @@
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1870,18 +1873,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1892,64 +1895,67 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -1959,65 +1965,68 @@
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="S2" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="T2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
@@ -2027,65 +2036,68 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="T3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -2095,61 +2107,64 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="T4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="U4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="V4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="0" t="s">
         <v>131</v>
       </c>
     </row>

--- a/testcases/case9.xlsx
+++ b/testcases/case9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -1614,10 +1614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1648,33 +1648,36 @@
         <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1875,7 +1878,7 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/testcases/case9.xlsx
+++ b/testcases/case9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,409 +21,396 @@
     <sheet name="baseMVA" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="133">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>baseKV</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>VNLB</t>
-  </si>
-  <si>
-    <t>VNUB</t>
-  </si>
-  <si>
-    <t>VELB</t>
-  </si>
-  <si>
-    <t>VEUB</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>busname</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>reactive</t>
-  </si>
-  <si>
-    <t>stat</t>
-  </si>
-  <si>
-    <t>VOLL</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>from_busname</t>
-  </si>
-  <si>
-    <t>to_busname</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>ShortTermRating</t>
-  </si>
-  <si>
-    <t>ContinousRating</t>
-  </si>
-  <si>
-    <t>angLB</t>
-  </si>
-  <si>
-    <t>angUB</t>
-  </si>
-  <si>
-    <t>contingency</t>
-  </si>
-  <si>
-    <t>probability</t>
-  </si>
-  <si>
-    <t>L1-14</t>
-  </si>
-  <si>
-    <t>0.0576</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>-360</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-  <si>
-    <t>L2-45</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>0.092</t>
-  </si>
-  <si>
-    <t>0.158</t>
-  </si>
-  <si>
-    <t>L3-56</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>L4-36</t>
-  </si>
-  <si>
-    <t>0.0586</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>L5-67</t>
-  </si>
-  <si>
-    <t>0.0119</t>
-  </si>
-  <si>
-    <t>0.1008</t>
-  </si>
-  <si>
-    <t>0.209</t>
-  </si>
-  <si>
-    <t>L6-78</t>
-  </si>
-  <si>
-    <t>0.0085</t>
-  </si>
-  <si>
-    <t>0.072</t>
-  </si>
-  <si>
-    <t>0.149</t>
-  </si>
-  <si>
-    <t>L7-82</t>
-  </si>
-  <si>
-    <t>0.0625</t>
-  </si>
-  <si>
-    <t>L8-89</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>L9-94</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.085</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>PhaseShift</t>
-  </si>
-  <si>
-    <t>TapRatio</t>
-  </si>
-  <si>
-    <t>TapLB</t>
-  </si>
-  <si>
-    <t>TapUB</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>QG</t>
-  </si>
-  <si>
-    <t>PGLB</t>
-  </si>
-  <si>
-    <t>PGUB</t>
-  </si>
-  <si>
-    <t>QGLB</t>
-  </si>
-  <si>
-    <t>QGUB</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>reserve(MW)</t>
-  </si>
-  <si>
-    <t>RampDown(MW/hr)</t>
-  </si>
-  <si>
-    <t>RampUp(MW/hr)</t>
-  </si>
-  <si>
-    <t>MinDownTime(hr)</t>
-  </si>
-  <si>
-    <t>MinUpTime(hr)</t>
-  </si>
-  <si>
-    <t>FuelType</t>
-  </si>
-  <si>
-    <t>startup</t>
-  </si>
-  <si>
-    <t>shutdown</t>
-  </si>
-  <si>
-    <t>costc2</t>
-  </si>
-  <si>
-    <t>costc1</t>
-  </si>
-  <si>
-    <t>costc0</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>-300</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>0.1225</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>baseMVA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="127">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseKV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from_busname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_busname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShortTermRating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContinousRating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contingency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5-67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhaseShift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TapRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TapLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TapUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserve(MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RampDown(MW/hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RampUp(MW/hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinDownTime(hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinUpTime(hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FuelType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costc0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseMVA</t>
   </si>
 </sst>
 </file>
@@ -431,7 +418,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -542,13 +529,13 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="1" sqref="A5:F10 G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,7 +861,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -889,18 +876,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -915,18 +902,18 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,7 +924,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -950,15 +937,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,190 +968,76 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1179,13 +1052,13 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,45 +1066,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>10</v>
@@ -1246,33 +1119,33 @@
         <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -1284,36 +1157,36 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1325,36 +1198,36 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>12</v>
@@ -1369,33 +1242,33 @@
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>19</v>
@@ -1407,36 +1280,36 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>20</v>
@@ -1448,36 +1321,36 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>21</v>
@@ -1492,33 +1365,33 @@
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>21</v>
@@ -1530,36 +1403,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>22</v>
@@ -1571,37 +1444,37 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1616,13 +1489,13 @@
   </sheetPr>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A5:F10 H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -1642,49 +1515,49 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1699,13 +1572,13 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,37 +1592,37 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1764,13 +1637,13 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1793,7 +1666,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1808,13 +1681,13 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,13 +1695,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1843,13 +1716,13 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,13 +1730,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1878,13 +1751,13 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A5:F10 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,61 +1774,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
@@ -1978,16 +1851,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -2005,28 +1878,28 @@
         <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="T2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="V2" s="0" t="s">
         <v>18</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +1907,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
@@ -2043,61 +1916,61 @@
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="T3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
@@ -2114,22 +1987,22 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -2147,34 +2020,34 @@
         <v>10</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="T4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="V4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
